--- a/biology/Botanique/Parque_Municipal_Américo_René_Giannetti/Parque_Municipal_Américo_René_Giannetti.xlsx
+++ b/biology/Botanique/Parque_Municipal_Américo_René_Giannetti/Parque_Municipal_Américo_René_Giannetti.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Parque_Municipal_Am%C3%A9rico_Ren%C3%A9_Giannetti</t>
+          <t>Parque_Municipal_Américo_René_Giannetti</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc national américain Renné Giannetti, est le principal parc de Belo Horizonte, capitale de l'État de Minas Gerais au Brésil. 
 Il a été inauguré le 26 septembre 1897.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Parque_Municipal_Am%C3%A9rico_Ren%C3%A9_Giannetti</t>
+          <t>Parque_Municipal_Américo_René_Giannetti</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En mars 1894, la commission de construction de la ville de Belo Horizonte, sous la coordination de l'ingénieur Aarão Reis, décide de transformer la ferme de Guilherme Ricardo Vaz de Mello en zone de loisirs pour la population, donnant naissance au parc municipal.
 Il est situé dans le centre-ville de Belo Horizonte, à côté de l'Avenida Afonso Pena et comprend 180 000 m2 de terrain clôturé et des tours de guet à toutes les entrées.
